--- a/biology/Médecine/Emile_Boulpaep/Emile_Boulpaep.xlsx
+++ b/biology/Médecine/Emile_Boulpaep/Emile_Boulpaep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Emiel Boulpaep (Emiel Louis Jean Baptiste Boulpaep),  né le 15 septembre 1938 à Alost est un professeur belge flamand.
-Il est docteur en médecine, professeur de physiologie cellulaire et moléculaire à la Yale University School of Medicine[1].
+Il est docteur en médecine, professeur de physiologie cellulaire et moléculaire à la Yale University School of Medicine.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Mandats et mandats passés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Président du Conseil de Direction de la Belgian American Educational Foundation.
 Vice-président et membre du Conseil de Direction d'Universitas Ltd. à New York
 Administrateur de la Fondation universitaire
-Administrateur de la Fondation Francqui[2].
+Administrateur de la Fondation Francqui.
 Administrateur de la Fondation Hoover pour le développement des universités de Louvain-Leuven et de Bruxelles-Brussel
 Membre d'honneur étranger de la Koninklijke Academie voor Geneeskunde van België
 Membre étranger honoraire de l'Académie royale de Médecine de Belgique
@@ -549,7 +563,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Lauréat du prix des Alumni de la Fondation universitaire
 Lauréat du Homer W. Smith Award de la Amercian Society of Nephrology and the New York Heart Association
@@ -581,7 +597,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1987 : Honorary Master of Arts (université Yale)
 Docteur honoris causa de l'UCL[Laquelle ?]
